--- a/public/files/health/vault_Health_hospitalcare.xlsx
+++ b/public/files/health/vault_Health_hospitalcare.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNHCR\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STUPALOV\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Health_Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5F17FA-A964-4AB8-857A-272AF04594C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METAData" sheetId="2" r:id="rId1"/>
     <sheet name="Hospital Care" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Ref">METAData!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,9 +43,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Row Valid N %</t>
-  </si>
-  <si>
     <t>Governorate</t>
   </si>
   <si>
@@ -60,19 +55,7 @@
     <t>Beirut</t>
   </si>
   <si>
-    <t>Beqaa</t>
-  </si>
-  <si>
-    <t>El_Nabatieh</t>
-  </si>
-  <si>
     <t>Mount Lebanon</t>
-  </si>
-  <si>
-    <t>North Lebanon</t>
-  </si>
-  <si>
-    <t>South Lebanon</t>
   </si>
   <si>
     <t>District</t>
@@ -210,12 +193,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Distance of health center</t>
-  </si>
-  <si>
-    <t>Dont know where to go</t>
-  </si>
-  <si>
     <t>Security concerns / fear of movement</t>
   </si>
   <si>
@@ -231,19 +208,7 @@
     <t>Table: % of households that required hospital health care assistance in the past 6 months</t>
   </si>
   <si>
-    <t>Table: % HH that received the required hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
-    <t>HH that required hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
-    <t>HH that received the required hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
     <t>Percentages calculated out of the total number of households that required hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
-    <t>Table:  Types of hospitalization assistance that households reported benefiting from</t>
   </si>
   <si>
     <t xml:space="preserve"> Types of hospitalization assistance that households reported benefiting from</t>
@@ -267,13 +232,7 @@
     <t>Unaware of payment/assistance types</t>
   </si>
   <si>
-    <t>Other payment/assistance</t>
-  </si>
-  <si>
     <t>Percentages calculated out of the total number of households that received the hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
-    <t>Table: Place of accessing Hospital health care</t>
   </si>
   <si>
     <t>Place of accessing Hospital health care</t>
@@ -282,58 +241,13 @@
     <t>Table: Reasons for not receiving the required hospital health care</t>
   </si>
   <si>
-    <t>Reasons for not receiving the Hospital health care</t>
-  </si>
-  <si>
     <t>Cost of treatment</t>
-  </si>
-  <si>
-    <t>The hospital refused to admit the patient due to the inability of the family to secure the hospital deposit</t>
-  </si>
-  <si>
-    <t>Inadequate welcoming/treatment by hospital staff</t>
-  </si>
-  <si>
-    <t>Not accepted due to no availability of beds</t>
-  </si>
-  <si>
-    <t>Physical limitations to access the health center</t>
   </si>
   <si>
     <t>Percentages calculated out of the total number of households that didn't receive the required hospital health care assistance</t>
   </si>
   <si>
-    <t>Table: % HH that know where to access medical services/assistance in case of emergency</t>
-  </si>
-  <si>
-    <t>HH that know where to access medical services/assistance in case of emergency</t>
-  </si>
-  <si>
-    <t>Table: % HH that have private health insurance</t>
-  </si>
-  <si>
-    <t>HH that that have private health insurance</t>
-  </si>
-  <si>
-    <t>Overlap with receiving PHC and hospital care</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>received_Hospitalcare</t>
-  </si>
-  <si>
-    <t>received_PHC</t>
-  </si>
-  <si>
-    <t>% within received_PHC</t>
-  </si>
-  <si>
-    <t>% within received_Hospitalcare</t>
-  </si>
-  <si>
-    <t>% of Total</t>
   </si>
   <si>
     <t>% of households that required hospital health care assistance in the past 6 months</t>
@@ -356,11 +270,95 @@
   <si>
     <t>Overlap with receiving primary health care PHC and hospital care</t>
   </si>
+  <si>
+    <t>Table: % households that received the required hospital health care assistance in the past 6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>Bekaa</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Households that know where to access medical services/assistance in case of emergency</t>
+  </si>
+  <si>
+    <t>Table: % households that know where to access medical services/assistance in case of emergency</t>
+  </si>
+  <si>
+    <t>Table: % households that have private health insurance</t>
+  </si>
+  <si>
+    <t>Table: Place of accessing hospital health care</t>
+  </si>
+  <si>
+    <t>Physical limitations to access health center</t>
+  </si>
+  <si>
+    <t>Not accepted due to no beds being available</t>
+  </si>
+  <si>
+    <t>Inadequate treatment by hospital staff</t>
+  </si>
+  <si>
+    <t>Distance to health center</t>
+  </si>
+  <si>
+    <t>Don't know where to go</t>
+  </si>
+  <si>
+    <t>Hospital refused to admit the patient due to her/his inability to secure the hospital deposit</t>
+  </si>
+  <si>
+    <t>Households that have private health insurance</t>
+  </si>
+  <si>
+    <t>Households that required hospital health care in the past 6 months</t>
+  </si>
+  <si>
+    <t>Households that received the required hospital health care in the past 6 months</t>
+  </si>
+  <si>
+    <t>Table: Types of hospitalization assistance that households reported benefiting from</t>
+  </si>
+  <si>
+    <t>Other payment/assistance type</t>
+  </si>
+  <si>
+    <t>Place of accessing hospital health care</t>
+  </si>
+  <si>
+    <t>Received hospital health care</t>
+  </si>
+  <si>
+    <t>% received PHC</t>
+  </si>
+  <si>
+    <t>% received hospital care</t>
+  </si>
+  <si>
+    <t>% of total</t>
+  </si>
+  <si>
+    <t>Received primary health care (PHC) assistance</t>
+  </si>
+  <si>
+    <t>Overlap between receiving primary- and hospital health care</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="###0.0%"/>
@@ -458,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -951,6 +949,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -958,7 +993,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1126,9 +1161,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1137,6 +1169,12 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1162,10 +1200,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1204,9 +1248,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1224,6 +1265,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1243,6 +1317,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,8 +1330,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Child Birth Details_1" xfId="3"/>
-    <cellStyle name="Normal_Sheet2" xfId="2"/>
+    <cellStyle name="Normal_Child Birth Details_1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1562,184 +1642,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Hospital Care'!A2" display="Link"/>
-    <hyperlink ref="A3:A8" location="'Hospital Care'!A2" display="Link"/>
-    <hyperlink ref="A4" location="'Hospital Care'!A51" display="Link"/>
-    <hyperlink ref="A5" location="'Hospital Care'!A100" display="Link"/>
-    <hyperlink ref="A6" location="'Hospital Care'!A141" display="Link"/>
-    <hyperlink ref="A7" location="'Hospital Care'!A156" display="Link"/>
-    <hyperlink ref="A8" location="'Hospital Care'!A197" display="Link"/>
-    <hyperlink ref="A9" location="'Hospital Care'!A239" display="Link"/>
+    <hyperlink ref="A2" location="'Hospital Care'!A2" display="Link" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3:A8" location="'Hospital Care'!A2" display="Link" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" location="'Hospital Care'!A51" display="Link" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" location="'Hospital Care'!A100" display="Link" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" location="'Hospital Care'!A141" display="Link" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" location="'Hospital Care'!A156" display="Link" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" location="'Hospital Care'!A197" display="Link" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" location="'Hospital Care'!A239" display="Link" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1747,62 +1827,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-    </row>
-    <row r="2" spans="1:25" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+    </row>
+    <row r="2" spans="1:25" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="J2" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -1812,32 +1892,32 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:25" ht="34.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+    <row r="3" spans="1:25" ht="34.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
+      <c r="J3" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="89"/>
+      <c r="L3" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -1847,36 +1927,36 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="97"/>
+      <c r="Q4" s="110"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1886,47 +1966,47 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="91"/>
+    <row r="5" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
+      <c r="H5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
       <c r="L5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>4</v>
+      <c r="Q5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -1937,7 +2017,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1996,12 +2076,12 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="19">
         <v>388.81277738999773</v>
@@ -2022,11 +2102,11 @@
         <v>1</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="L7" s="19">
         <v>4.7300824500000003</v>
@@ -2055,10 +2135,10 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
       <c r="B8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="23">
         <v>388.62206503199849</v>
@@ -2079,9 +2159,9 @@
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="71"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="23">
         <v>27.072210313999989</v>
@@ -2110,10 +2190,10 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
       <c r="B9" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="19">
         <v>117.72898570899973</v>
@@ -2134,9 +2214,9 @@
         <v>1</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="71"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="19">
         <v>4.1702365510000003</v>
@@ -2165,10 +2245,10 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
       <c r="B10" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C10" s="23">
         <v>775.22294618399951</v>
@@ -2189,9 +2269,9 @@
         <v>1</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="71"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="L10" s="23">
         <v>32.036738729000007</v>
@@ -2220,10 +2300,10 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+    <row r="11" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="102"/>
       <c r="B11" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="19">
         <v>148.78584493199961</v>
@@ -2244,9 +2324,9 @@
         <v>1</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="71"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L11" s="19">
         <v>4.175644514</v>
@@ -2275,10 +2355,10 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+    <row r="12" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
       <c r="B12" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="23">
         <v>1172.4916298760006</v>
@@ -2299,9 +2379,9 @@
         <v>1</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="71"/>
+      <c r="J12" s="102"/>
       <c r="K12" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L12" s="23">
         <v>85.935218033999945</v>
@@ -2330,10 +2410,10 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
       <c r="B13" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C13" s="19">
         <v>526.2563146669994</v>
@@ -2354,9 +2434,9 @@
         <v>1</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="71"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="L13" s="19">
         <v>19.296136689999997</v>
@@ -2385,10 +2465,10 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+    <row r="14" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
       <c r="B14" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C14" s="23">
         <v>217.98686257299968</v>
@@ -2409,9 +2489,9 @@
         <v>1</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="71"/>
+      <c r="J14" s="102"/>
       <c r="K14" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="L14" s="23">
         <v>21.023714390999999</v>
@@ -2440,12 +2520,12 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>14</v>
+    <row r="15" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="102" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="19">
         <v>388.81277738999773</v>
@@ -2466,11 +2546,11 @@
         <v>1</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="71" t="s">
-        <v>14</v>
+      <c r="J15" s="102" t="s">
+        <v>9</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" s="19">
         <v>4.7300824500000003</v>
@@ -2499,10 +2579,10 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+    <row r="16" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
       <c r="B16" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" s="23">
         <v>255.06192512400068</v>
@@ -2523,9 +2603,9 @@
         <v>1</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="71"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L16" s="23">
         <v>12.442045128</v>
@@ -2554,10 +2634,10 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="102"/>
       <c r="B17" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C17" s="19">
         <v>413.19246969</v>
@@ -2578,9 +2658,9 @@
         <v>1</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="71"/>
+      <c r="J17" s="102"/>
       <c r="K17" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L17" s="19">
         <v>37.56295179</v>
@@ -2609,10 +2689,10 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+    <row r="18" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
       <c r="B18" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C18" s="23">
         <v>370.12713242399906</v>
@@ -2633,9 +2713,9 @@
         <v>1</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="71"/>
+      <c r="J18" s="102"/>
       <c r="K18" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L18" s="23">
         <v>23.989721546000009</v>
@@ -2664,10 +2744,10 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
+    <row r="19" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="102"/>
       <c r="B19" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="19">
         <v>6.551029350000003</v>
@@ -2688,9 +2768,9 @@
         <v>1</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="102"/>
       <c r="K19" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L19" s="27">
         <v>7.2789215000000004E-2</v>
@@ -2719,10 +2799,10 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+    <row r="20" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="102"/>
       <c r="B20" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="23">
         <v>117.72898570899973</v>
@@ -2743,9 +2823,9 @@
         <v>1</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="102"/>
       <c r="K20" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" s="23">
         <v>4.1702365510000003</v>
@@ -2774,10 +2854,10 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="102"/>
       <c r="B21" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" s="19">
         <v>23.663961539999967</v>
@@ -2798,9 +2878,9 @@
         <v>1</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="71"/>
+      <c r="J21" s="102"/>
       <c r="K21" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L21" s="19">
         <v>1.24547166</v>
@@ -2829,10 +2909,10 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+    <row r="22" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="102"/>
       <c r="B22" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" s="23">
         <v>179.81560112999952</v>
@@ -2853,9 +2933,9 @@
         <v>1</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="71"/>
+      <c r="J22" s="102"/>
       <c r="K22" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L22" s="23">
         <v>11.367652945000003</v>
@@ -2884,10 +2964,10 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
+    <row r="23" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="102"/>
       <c r="B23" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="19">
         <v>47.56078735099991</v>
@@ -2908,9 +2988,9 @@
         <v>1</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="71"/>
+      <c r="J23" s="102"/>
       <c r="K23" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L23" s="19">
         <v>1.3852656510000001</v>
@@ -2939,10 +3019,10 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+    <row r="24" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="102"/>
       <c r="B24" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" s="23">
         <v>18.494932608000013</v>
@@ -2963,9 +3043,9 @@
         <v>1</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="71"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L24" s="23">
         <v>3.0824887680000002</v>
@@ -2994,10 +3074,10 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+    <row r="25" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="102"/>
       <c r="B25" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" s="19">
         <v>63.363827459999833</v>
@@ -3018,9 +3098,9 @@
         <v>1</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="J25" s="71"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L25" s="19">
         <v>1.1019796079999999</v>
@@ -3049,10 +3129,10 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+    <row r="26" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="102"/>
       <c r="B26" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C26" s="23">
         <v>214.08277737500029</v>
@@ -3073,9 +3153,9 @@
         <v>1</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="71"/>
+      <c r="J26" s="102"/>
       <c r="K26" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L26" s="23">
         <v>17.126622189999999</v>
@@ -3104,10 +3184,10 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+    <row r="27" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="102"/>
       <c r="B27" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="19">
         <v>181.74584559500016</v>
@@ -3128,9 +3208,9 @@
         <v>1</v>
       </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="71"/>
+      <c r="J27" s="102"/>
       <c r="K27" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L27" s="19">
         <v>8.041851574999999</v>
@@ -3159,10 +3239,10 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+    <row r="28" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="102"/>
       <c r="B28" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="23">
         <v>78.06557718000002</v>
@@ -3183,9 +3263,9 @@
         <v>1</v>
       </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="71"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L28" s="28">
         <v>0.86739530200000003</v>
@@ -3214,10 +3294,10 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+    <row r="29" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="102"/>
       <c r="B29" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="19">
         <v>19.208809259999963</v>
@@ -3238,9 +3318,9 @@
         <v>1</v>
       </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="71"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L29" s="19">
         <v>0</v>
@@ -3269,10 +3349,10 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+    <row r="30" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="102"/>
       <c r="B30" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" s="23">
         <v>34.185903821999986</v>
@@ -3293,9 +3373,9 @@
         <v>1</v>
       </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="71"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L30" s="28">
         <v>0.81395009099999993</v>
@@ -3324,10 +3404,10 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
+    <row r="31" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="102"/>
       <c r="B31" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31" s="19">
         <v>10.656684018000002</v>
@@ -3348,9 +3428,9 @@
         <v>1</v>
       </c>
       <c r="I31" s="8"/>
-      <c r="J31" s="71"/>
+      <c r="J31" s="102"/>
       <c r="K31" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L31" s="27">
         <v>0.69879895199999986</v>
@@ -3379,10 +3459,10 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+    <row r="32" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="102"/>
       <c r="B32" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32" s="23">
         <v>76.152952734999772</v>
@@ -3403,9 +3483,9 @@
         <v>1</v>
       </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="71"/>
+      <c r="J32" s="102"/>
       <c r="K32" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L32" s="23">
         <v>6.62199589</v>
@@ -3434,10 +3514,10 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+    <row r="33" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="102"/>
       <c r="B33" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C33" s="19">
         <v>27.847496952</v>
@@ -3458,9 +3538,9 @@
         <v>1</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="71"/>
+      <c r="J33" s="102"/>
       <c r="K33" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L33" s="19">
         <v>2.062777552</v>
@@ -3489,10 +3569,10 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="102"/>
       <c r="B34" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C34" s="23">
         <v>26.081689451999964</v>
@@ -3513,9 +3593,9 @@
         <v>1</v>
       </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="71"/>
+      <c r="J34" s="102"/>
       <c r="K34" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L34" s="28">
         <v>0.28661197199999999</v>
@@ -3544,10 +3624,10 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
+    <row r="35" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="102"/>
       <c r="B35" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" s="19">
         <v>117.56161124899981</v>
@@ -3568,9 +3648,9 @@
         <v>1</v>
       </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="71"/>
+      <c r="J35" s="102"/>
       <c r="K35" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L35" s="19">
         <v>15.131692537000003</v>
@@ -3599,10 +3679,10 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
+    <row r="36" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="102"/>
       <c r="B36" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="23">
         <v>89.768567306000179</v>
@@ -3623,9 +3703,9 @@
         <v>1</v>
       </c>
       <c r="I36" s="8"/>
-      <c r="J36" s="71"/>
+      <c r="J36" s="102"/>
       <c r="K36" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L36" s="23">
         <v>5.1932229020000005</v>
@@ -3654,10 +3734,10 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+    <row r="37" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="102"/>
       <c r="B37" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" s="19">
         <v>173.81850085100021</v>
@@ -3678,9 +3758,9 @@
         <v>1</v>
       </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="71"/>
+      <c r="J37" s="102"/>
       <c r="K37" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L37" s="19">
         <v>6.8432480650000009</v>
@@ -3709,10 +3789,10 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+    <row r="38" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="102"/>
       <c r="B38" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" s="23">
         <v>219.90946014799971</v>
@@ -3733,9 +3813,9 @@
         <v>1</v>
       </c>
       <c r="I38" s="8"/>
-      <c r="J38" s="71"/>
+      <c r="J38" s="102"/>
       <c r="K38" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L38" s="23">
         <v>12.293075411999999</v>
@@ -3764,10 +3844,10 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+    <row r="39" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="102"/>
       <c r="B39" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="19">
         <v>529.23179658400034</v>
@@ -3788,9 +3868,9 @@
         <v>1</v>
       </c>
       <c r="I39" s="8"/>
-      <c r="J39" s="71"/>
+      <c r="J39" s="102"/>
       <c r="K39" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L39" s="19">
         <v>19.457051345</v>
@@ -3819,10 +3899,10 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+    <row r="40" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="102"/>
       <c r="B40" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C40" s="23">
         <v>53.21632406000014</v>
@@ -3843,9 +3923,9 @@
         <v>1</v>
       </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="71"/>
+      <c r="J40" s="102"/>
       <c r="K40" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L40" s="23">
         <v>1.851002576</v>
@@ -3874,12 +3954,12 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
-        <v>47</v>
+    <row r="41" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="102" t="s">
+        <v>42</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C41" s="19">
         <v>623.19230090100166</v>
@@ -3900,11 +3980,11 @@
         <v>1</v>
       </c>
       <c r="I41" s="8"/>
-      <c r="J41" s="71" t="s">
-        <v>47</v>
+      <c r="J41" s="102" t="s">
+        <v>42</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L41" s="19">
         <v>24.471351151999993</v>
@@ -3933,10 +4013,10 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:25" ht="66" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:25" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="102"/>
       <c r="B42" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C42" s="23">
         <v>345.57243103600058</v>
@@ -3957,9 +4037,9 @@
         <v>1</v>
       </c>
       <c r="I42" s="8"/>
-      <c r="J42" s="71"/>
+      <c r="J42" s="102"/>
       <c r="K42" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L42" s="23">
         <v>17.672618128</v>
@@ -3988,10 +4068,10 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+    <row r="43" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="102"/>
       <c r="B43" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43" s="19">
         <v>627.64754542900141</v>
@@ -4012,9 +4092,9 @@
         <v>1</v>
       </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="71"/>
+      <c r="J43" s="102"/>
       <c r="K43" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L43" s="19">
         <v>23.344096485999994</v>
@@ -4043,10 +4123,10 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
+    <row r="44" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="102"/>
       <c r="B44" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C44" s="23">
         <v>2071.977693052992</v>
@@ -4067,9 +4147,9 @@
         <v>1</v>
       </c>
       <c r="I44" s="8"/>
-      <c r="J44" s="71"/>
+      <c r="J44" s="102"/>
       <c r="K44" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L44" s="23">
         <v>129.16469017999998</v>
@@ -4098,9 +4178,9 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
-        <v>52</v>
+    <row r="45" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="102" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>0</v>
@@ -4124,8 +4204,8 @@
         <v>1</v>
       </c>
       <c r="I45" s="8"/>
-      <c r="J45" s="71" t="s">
-        <v>52</v>
+      <c r="J45" s="102" t="s">
+        <v>47</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>0</v>
@@ -4157,8 +4237,8 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
+    <row r="46" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="102"/>
       <c r="B46" s="18" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="71"/>
+      <c r="J46" s="102"/>
       <c r="K46" s="18" t="s">
         <v>1</v>
       </c>
@@ -4212,9 +4292,9 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
-        <v>53</v>
+    <row r="47" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="102" t="s">
+        <v>48</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>0</v>
@@ -4238,8 +4318,8 @@
         <v>1</v>
       </c>
       <c r="I47" s="8"/>
-      <c r="J47" s="71" t="s">
-        <v>53</v>
+      <c r="J47" s="102" t="s">
+        <v>48</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>0</v>
@@ -4271,8 +4351,8 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
+    <row r="48" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="103"/>
       <c r="B48" s="29" t="s">
         <v>1</v>
       </c>
@@ -4295,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="8"/>
-      <c r="J48" s="72"/>
+      <c r="J48" s="103"/>
       <c r="K48" s="29" t="s">
         <v>1</v>
       </c>
@@ -4326,28 +4406,28 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
     </row>
-    <row r="49" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
+    <row r="49" spans="1:25" ht="34.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
+      <c r="J49" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -4357,7 +4437,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4384,27 +4464,27 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
     </row>
-    <row r="51" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-      <c r="Q51" s="85"/>
-      <c r="R51" s="85"/>
+    <row r="51" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="104"/>
+      <c r="P51" s="104"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="104"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -4413,29 +4493,29 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
     </row>
-    <row r="52" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="94"/>
+    <row r="52" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="89"/>
+      <c r="C52" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="106"/>
+      <c r="P52" s="106"/>
+      <c r="Q52" s="106"/>
+      <c r="R52" s="107"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
@@ -4444,41 +4524,41 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96" t="s">
+    <row r="53" spans="1:25" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="90"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="101"/>
+      <c r="M53" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="101"/>
+      <c r="O53" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="R53" s="97"/>
+      <c r="R53" s="112"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
@@ -4487,56 +4567,56 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
     </row>
-    <row r="54" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="90"/>
-      <c r="B54" s="91"/>
+    <row r="54" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="R54" s="11" t="s">
-        <v>4</v>
+      <c r="R54" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
@@ -4546,7 +4626,7 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
     </row>
-    <row r="55" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>2</v>
       </c>
@@ -4609,12 +4689,12 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
     </row>
-    <row r="56" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
+    <row r="56" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C56" s="19">
         <v>3.78406596</v>
@@ -4672,10 +4752,10 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
     </row>
-    <row r="57" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
+    <row r="57" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="102"/>
       <c r="B57" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="23">
         <v>2.227299667</v>
@@ -4733,10 +4813,10 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
     </row>
-    <row r="58" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
+    <row r="58" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="102"/>
       <c r="B58" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="19">
         <v>1.2831497080000001</v>
@@ -4794,10 +4874,10 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
     </row>
-    <row r="59" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
+    <row r="59" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="102"/>
       <c r="B59" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C59" s="23">
         <v>0</v>
@@ -4855,10 +4935,10 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
     </row>
-    <row r="60" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
+    <row r="60" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="102"/>
       <c r="B60" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C60" s="19">
         <v>1.2922756200000001</v>
@@ -4916,10 +4996,10 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
     </row>
-    <row r="61" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
+    <row r="61" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="102"/>
       <c r="B61" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C61" s="23">
         <v>7.5819461130000008</v>
@@ -4977,10 +5057,10 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
     </row>
-    <row r="62" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
+    <row r="62" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="102"/>
       <c r="B62" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C62" s="27">
         <v>0.218367645</v>
@@ -5038,10 +5118,10 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
     </row>
-    <row r="63" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
+    <row r="63" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="102"/>
       <c r="B63" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C63" s="23">
         <v>1.251326218</v>
@@ -5099,12 +5179,12 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
-        <v>14</v>
+    <row r="64" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="102" t="s">
+        <v>9</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="19">
         <v>3.78406596</v>
@@ -5162,10 +5242,10 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
     </row>
-    <row r="65" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
+    <row r="65" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="102"/>
       <c r="B65" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C65" s="23">
         <v>0</v>
@@ -5223,10 +5303,10 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
     </row>
-    <row r="66" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
+    <row r="66" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="102"/>
       <c r="B66" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C66" s="19">
         <v>4.17366131</v>
@@ -5284,10 +5364,10 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
     </row>
-    <row r="67" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
+    <row r="67" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="102"/>
       <c r="B67" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67" s="23">
         <v>1.713551539</v>
@@ -5345,10 +5425,10 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
     </row>
-    <row r="68" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="71"/>
+    <row r="68" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="102"/>
       <c r="B68" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C68" s="27">
         <v>0.218367645</v>
@@ -5406,10 +5486,10 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="71"/>
+    <row r="69" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="102"/>
       <c r="B69" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" s="23">
         <v>1.2831497080000001</v>
@@ -5467,10 +5547,10 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
     </row>
-    <row r="70" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="102"/>
       <c r="B70" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" s="19">
         <v>0</v>
@@ -5528,10 +5608,10 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
     </row>
-    <row r="71" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
+    <row r="71" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="102"/>
       <c r="B71" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C71" s="23">
         <v>1.033422995</v>
@@ -5589,10 +5669,10 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
     </row>
-    <row r="72" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+    <row r="72" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="102"/>
       <c r="B72" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C72" s="19">
         <v>0</v>
@@ -5650,10 +5730,10 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
     </row>
-    <row r="73" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+    <row r="73" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="102"/>
       <c r="B73" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C73" s="28">
         <v>0.51374812800000003</v>
@@ -5711,10 +5791,10 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
     </row>
-    <row r="74" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
+    <row r="74" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="102"/>
       <c r="B74" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C74" s="19">
         <v>0</v>
@@ -5772,10 +5852,10 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
     </row>
-    <row r="75" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
+    <row r="75" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="102"/>
       <c r="B75" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C75" s="23">
         <v>1.712662219</v>
@@ -5833,10 +5913,10 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
     </row>
-    <row r="76" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
+    <row r="76" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="102"/>
       <c r="B76" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C76" s="19">
         <v>0</v>
@@ -5894,10 +5974,10 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
     </row>
-    <row r="77" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="71"/>
+    <row r="77" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="102"/>
       <c r="B77" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C77" s="28">
         <v>0.86739530200000003</v>
@@ -5955,10 +6035,10 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="71"/>
+    <row r="78" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="102"/>
       <c r="B78" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C78" s="27">
         <v>0.16703312400000001</v>
@@ -6016,10 +6096,10 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
     </row>
-    <row r="79" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+    <row r="79" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="102"/>
       <c r="B79" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C79" s="23">
         <v>0</v>
@@ -6077,10 +6157,10 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
     </row>
-    <row r="80" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
+    <row r="80" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="102"/>
       <c r="B80" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C80" s="27">
         <v>8.7349868999999997E-2</v>
@@ -6138,10 +6218,10 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
     </row>
-    <row r="81" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
+    <row r="81" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="102"/>
       <c r="B81" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C81" s="28">
         <v>0.66219958899999998</v>
@@ -6199,10 +6279,10 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
     </row>
-    <row r="82" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
+    <row r="82" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="102"/>
       <c r="B82" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C82" s="27">
         <v>0.257847194</v>
@@ -6260,10 +6340,10 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
     </row>
-    <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
+    <row r="83" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="102"/>
       <c r="B83" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C83" s="23">
         <v>0</v>
@@ -6321,10 +6401,10 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
     </row>
-    <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
+    <row r="84" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="102"/>
       <c r="B84" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C84" s="19">
         <v>1.1639763489999999</v>
@@ -6382,10 +6462,10 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
     </row>
-    <row r="85" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
+    <row r="85" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="102"/>
       <c r="B85" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C85" s="23">
         <v>0</v>
@@ -6443,10 +6523,10 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
     </row>
-    <row r="86" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
+    <row r="86" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="102"/>
       <c r="B86" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C86" s="19">
         <v>0</v>
@@ -6504,10 +6584,10 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
     </row>
-    <row r="87" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
+    <row r="87" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="102"/>
       <c r="B87" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C87" s="23">
         <v>0</v>
@@ -6565,10 +6645,10 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
     </row>
-    <row r="88" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
+    <row r="88" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="102"/>
       <c r="B88" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C88" s="19">
         <v>0</v>
@@ -6626,10 +6706,10 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
     </row>
-    <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
+    <row r="89" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="102"/>
       <c r="B89" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C89" s="23">
         <v>0</v>
@@ -6687,12 +6767,12 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
-        <v>47</v>
+    <row r="90" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="102" t="s">
+        <v>42</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C90" s="19">
         <v>3.4137672819999998</v>
@@ -6750,10 +6830,10 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
     </row>
-    <row r="91" spans="1:25" ht="66" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+    <row r="91" spans="1:25" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="102"/>
       <c r="B91" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C91" s="23">
         <v>4.5672379520000002</v>
@@ -6811,10 +6891,10 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
     </row>
-    <row r="92" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
+    <row r="92" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="102"/>
       <c r="B92" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C92" s="19">
         <v>2.4771090179999997</v>
@@ -6872,10 +6952,10 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
     </row>
-    <row r="93" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
+    <row r="93" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="102"/>
       <c r="B93" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C93" s="23">
         <v>6.8595292519999989</v>
@@ -6933,9 +7013,9 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
     </row>
-    <row r="94" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="71" t="s">
-        <v>52</v>
+    <row r="94" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="102" t="s">
+        <v>47</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>0</v>
@@ -6996,8 +7076,8 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
     </row>
-    <row r="95" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
+    <row r="95" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="102"/>
       <c r="B95" s="18" t="s">
         <v>1</v>
       </c>
@@ -7057,9 +7137,9 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
     </row>
-    <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
-        <v>53</v>
+    <row r="96" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="102" t="s">
+        <v>48</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>0</v>
@@ -7120,8 +7200,8 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
     </row>
-    <row r="97" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="72"/>
+    <row r="97" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="103"/>
       <c r="B97" s="29" t="s">
         <v>1</v>
       </c>
@@ -7181,27 +7261,27 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
     </row>
-    <row r="98" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B98" s="73"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="73"/>
-      <c r="K98" s="73"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="73"/>
-      <c r="N98" s="73"/>
-      <c r="O98" s="73"/>
-      <c r="P98" s="73"/>
-      <c r="Q98" s="73"/>
-      <c r="R98" s="73"/>
+    <row r="98" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="76"/>
+      <c r="M98" s="76"/>
+      <c r="N98" s="76"/>
+      <c r="O98" s="76"/>
+      <c r="P98" s="76"/>
+      <c r="Q98" s="76"/>
+      <c r="R98" s="76"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
@@ -7210,7 +7290,7 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7237,17 +7317,17 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
+    <row r="100" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="104"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="104"/>
+      <c r="E100" s="104"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="104"/>
+      <c r="H100" s="104"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -7266,19 +7346,19 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
     </row>
-    <row r="101" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="87"/>
-      <c r="C101" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="94"/>
+    <row r="101" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="89"/>
+      <c r="C101" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="107"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -7297,21 +7377,21 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="88"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="96"/>
-      <c r="G102" s="96" t="s">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102" s="90"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" s="109"/>
+      <c r="E102" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="109"/>
+      <c r="G102" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="97"/>
+      <c r="H102" s="110"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -7330,26 +7410,26 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
     </row>
-    <row r="103" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="90"/>
-      <c r="B103" s="91"/>
+    <row r="103" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="92"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -7369,7 +7449,7 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
     </row>
-    <row r="104" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>2</v>
       </c>
@@ -7412,12 +7492,12 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
     </row>
-    <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="71" t="s">
+    <row r="105" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C105" s="19">
         <v>0</v>
@@ -7455,10 +7535,10 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
     </row>
-    <row r="106" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
+    <row r="106" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="102"/>
       <c r="B106" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="23">
         <v>1.713551539</v>
@@ -7496,10 +7576,10 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
     </row>
-    <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="71"/>
+    <row r="107" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="102"/>
       <c r="B107" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="19">
         <v>1.603937135</v>
@@ -7537,10 +7617,10 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
+    <row r="108" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="102"/>
       <c r="B108" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C108" s="23">
         <v>0</v>
@@ -7578,10 +7658,10 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
     </row>
-    <row r="109" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
+    <row r="109" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="102"/>
       <c r="B109" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C109" s="19">
         <v>2.4644389339999999</v>
@@ -7619,10 +7699,10 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
     </row>
-    <row r="110" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
+    <row r="110" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="102"/>
       <c r="B110" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C110" s="23">
         <v>6.5085537880000004</v>
@@ -7660,10 +7740,10 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
     </row>
-    <row r="111" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
+    <row r="111" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="102"/>
       <c r="B111" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C111" s="19">
         <v>3.8238288889999996</v>
@@ -7701,10 +7781,10 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
     </row>
-    <row r="112" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="71"/>
+    <row r="112" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="102"/>
       <c r="B112" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C112" s="28">
         <v>8.7349868999999997E-2</v>
@@ -7742,12 +7822,12 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
     </row>
-    <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="71" t="s">
-        <v>14</v>
+    <row r="113" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="102" t="s">
+        <v>9</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="19">
         <v>0</v>
@@ -7785,10 +7865,10 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
     </row>
-    <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="71"/>
+    <row r="114" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="102"/>
       <c r="B114" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C114" s="23">
         <v>0</v>
@@ -7826,10 +7906,10 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
     </row>
-    <row r="115" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="71"/>
+    <row r="115" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="102"/>
       <c r="B115" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C115" s="19">
         <v>0</v>
@@ -7867,10 +7947,10 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
     </row>
-    <row r="116" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
+    <row r="116" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="102"/>
       <c r="B116" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C116" s="23">
         <v>1.713551539</v>
@@ -7908,10 +7988,10 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
     </row>
-    <row r="117" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="71"/>
+    <row r="117" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="102"/>
       <c r="B117" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C117" s="27">
         <v>7.2789215000000004E-2</v>
@@ -7949,10 +8029,10 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
     </row>
-    <row r="118" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="71"/>
+    <row r="118" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="102"/>
       <c r="B118" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" s="23">
         <v>1.603937135</v>
@@ -7990,10 +8070,10 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
     </row>
-    <row r="119" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="71"/>
+    <row r="119" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="102"/>
       <c r="B119" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C119" s="27">
         <v>0.74728299600000003</v>
@@ -8031,10 +8111,10 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
     </row>
-    <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="71"/>
+    <row r="120" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="102"/>
       <c r="B120" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C120" s="23">
         <v>4.13369198</v>
@@ -8072,10 +8152,10 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
     </row>
-    <row r="121" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="71"/>
+    <row r="121" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="102"/>
       <c r="B121" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C121" s="19">
         <v>0</v>
@@ -8113,10 +8193,10 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
     </row>
-    <row r="122" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
+    <row r="122" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="102"/>
       <c r="B122" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C122" s="23">
         <v>0</v>
@@ -8154,10 +8234,10 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
     </row>
-    <row r="123" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="71"/>
+    <row r="123" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="102"/>
       <c r="B123" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C123" s="27">
         <v>0.55098980399999997</v>
@@ -8195,10 +8275,10 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
     </row>
-    <row r="124" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="71"/>
+    <row r="124" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="102"/>
       <c r="B124" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C124" s="23">
         <v>1.712662219</v>
@@ -8236,10 +8316,10 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
     </row>
-    <row r="125" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A125" s="71"/>
+    <row r="125" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="102"/>
       <c r="B125" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C125" s="19">
         <v>0</v>
@@ -8277,10 +8357,10 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
     </row>
-    <row r="126" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="71"/>
+    <row r="126" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="102"/>
       <c r="B126" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C126" s="28">
         <v>0.86739530200000003</v>
@@ -8318,10 +8398,10 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
     </row>
-    <row r="127" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A127" s="71"/>
+    <row r="127" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="102"/>
       <c r="B127" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C127" s="27">
         <v>0.33406624800000001</v>
@@ -8359,10 +8439,10 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
     </row>
-    <row r="128" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="71"/>
+    <row r="128" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="102"/>
       <c r="B128" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C128" s="23">
         <v>0</v>
@@ -8400,10 +8480,10 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
     </row>
-    <row r="129" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="71"/>
+    <row r="129" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="102"/>
       <c r="B129" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C129" s="27">
         <v>8.7349868999999997E-2</v>
@@ -8441,10 +8521,10 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
     </row>
-    <row r="130" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="71"/>
+    <row r="130" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="102"/>
       <c r="B130" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C130" s="28">
         <v>0.66219958899999998</v>
@@ -8482,10 +8562,10 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
     </row>
-    <row r="131" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="71"/>
+    <row r="131" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="102"/>
       <c r="B131" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C131" s="27">
         <v>0.515694388</v>
@@ -8523,10 +8603,10 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
     </row>
-    <row r="132" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="71"/>
+    <row r="132" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="102"/>
       <c r="B132" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C132" s="23">
         <v>0</v>
@@ -8564,10 +8644,10 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
     </row>
-    <row r="133" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A133" s="71"/>
+    <row r="133" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="102"/>
       <c r="B133" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C133" s="19">
         <v>0</v>
@@ -8605,10 +8685,10 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
     </row>
-    <row r="134" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="71"/>
+    <row r="134" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="102"/>
       <c r="B134" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C134" s="23">
         <v>0</v>
@@ -8646,10 +8726,10 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
     </row>
-    <row r="135" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="71"/>
+    <row r="135" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="102"/>
       <c r="B135" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C135" s="19">
         <v>2.7372992260000002</v>
@@ -8687,10 +8767,10 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
     </row>
-    <row r="136" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="71"/>
+    <row r="136" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="102"/>
       <c r="B136" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C136" s="23">
         <v>0</v>
@@ -8728,10 +8808,10 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
     </row>
-    <row r="137" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="71"/>
+    <row r="137" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="102"/>
       <c r="B137" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C137" s="19">
         <v>0</v>
@@ -8769,10 +8849,10 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
     </row>
-    <row r="138" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="72"/>
+    <row r="138" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="103"/>
       <c r="B138" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C138" s="41">
         <v>0.46275064399999999</v>
@@ -8810,17 +8890,17 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
     </row>
-    <row r="139" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B139" s="73"/>
-      <c r="C139" s="73"/>
-      <c r="D139" s="73"/>
-      <c r="E139" s="73"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="73"/>
-      <c r="H139" s="73"/>
+    <row r="139" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
@@ -8839,7 +8919,7 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8866,187 +8946,187 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
     </row>
-    <row r="141" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B141" s="85"/>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="85"/>
-      <c r="I141" s="85"/>
-      <c r="J141" s="85"/>
-      <c r="K141" s="85"/>
-      <c r="L141" s="85"/>
-      <c r="M141" s="85"/>
-      <c r="N141" s="85"/>
-      <c r="O141" s="85"/>
-      <c r="P141" s="85"/>
-      <c r="Q141" s="85"/>
-      <c r="R141" s="85"/>
-      <c r="S141" s="85"/>
-      <c r="T141" s="85"/>
-      <c r="U141" s="85"/>
-      <c r="V141" s="85"/>
-      <c r="W141" s="85"/>
-      <c r="X141" s="85"/>
+    <row r="141" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" s="104"/>
+      <c r="C141" s="104"/>
+      <c r="D141" s="104"/>
+      <c r="E141" s="104"/>
+      <c r="F141" s="104"/>
+      <c r="G141" s="104"/>
+      <c r="H141" s="104"/>
+      <c r="I141" s="104"/>
+      <c r="J141" s="104"/>
+      <c r="K141" s="104"/>
+      <c r="L141" s="104"/>
+      <c r="M141" s="104"/>
+      <c r="N141" s="104"/>
+      <c r="O141" s="104"/>
+      <c r="P141" s="104"/>
+      <c r="Q141" s="104"/>
+      <c r="R141" s="104"/>
+      <c r="S141" s="104"/>
+      <c r="T141" s="104"/>
+      <c r="U141" s="104"/>
+      <c r="V141" s="104"/>
+      <c r="W141" s="104"/>
+      <c r="X141" s="104"/>
       <c r="Y141" s="8"/>
     </row>
-    <row r="142" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B142" s="87"/>
-      <c r="C142" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D142" s="93"/>
-      <c r="E142" s="93"/>
-      <c r="F142" s="93"/>
-      <c r="G142" s="93"/>
-      <c r="H142" s="93"/>
-      <c r="I142" s="93"/>
-      <c r="J142" s="93"/>
-      <c r="K142" s="93"/>
-      <c r="L142" s="93"/>
-      <c r="M142" s="93"/>
-      <c r="N142" s="93"/>
-      <c r="O142" s="93"/>
-      <c r="P142" s="93"/>
-      <c r="Q142" s="93"/>
-      <c r="R142" s="93"/>
-      <c r="S142" s="93"/>
-      <c r="T142" s="93"/>
-      <c r="U142" s="93"/>
-      <c r="V142" s="93"/>
-      <c r="W142" s="93"/>
-      <c r="X142" s="94"/>
+    <row r="142" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="89"/>
+      <c r="C142" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="106"/>
+      <c r="E142" s="106"/>
+      <c r="F142" s="106"/>
+      <c r="G142" s="106"/>
+      <c r="H142" s="106"/>
+      <c r="I142" s="106"/>
+      <c r="J142" s="106"/>
+      <c r="K142" s="106"/>
+      <c r="L142" s="106"/>
+      <c r="M142" s="106"/>
+      <c r="N142" s="106"/>
+      <c r="O142" s="106"/>
+      <c r="P142" s="106"/>
+      <c r="Q142" s="106"/>
+      <c r="R142" s="106"/>
+      <c r="S142" s="106"/>
+      <c r="T142" s="106"/>
+      <c r="U142" s="106"/>
+      <c r="V142" s="106"/>
+      <c r="W142" s="106"/>
+      <c r="X142" s="107"/>
       <c r="Y142" s="8"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A143" s="88"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="D143" s="96"/>
-      <c r="E143" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="F143" s="96"/>
-      <c r="G143" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H143" s="96"/>
-      <c r="I143" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="J143" s="96"/>
-      <c r="K143" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="L143" s="96"/>
-      <c r="M143" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="N143" s="96"/>
-      <c r="O143" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="P143" s="96"/>
-      <c r="Q143" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="R143" s="96"/>
-      <c r="S143" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="T143" s="96"/>
-      <c r="U143" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="V143" s="96"/>
-      <c r="W143" s="96" t="s">
+    <row r="143" spans="1:25" s="63" customFormat="1" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="90"/>
+      <c r="B143" s="91"/>
+      <c r="C143" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" s="101"/>
+      <c r="E143" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="101"/>
+      <c r="G143" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H143" s="101"/>
+      <c r="I143" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="J143" s="101"/>
+      <c r="K143" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="L143" s="101"/>
+      <c r="M143" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="N143" s="101"/>
+      <c r="O143" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P143" s="101"/>
+      <c r="Q143" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="R143" s="101"/>
+      <c r="S143" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="T143" s="101"/>
+      <c r="U143" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="V143" s="101"/>
+      <c r="W143" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="X143" s="97"/>
-      <c r="Y143" s="8"/>
-    </row>
-    <row r="144" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="90"/>
-      <c r="B144" s="91"/>
+      <c r="X143" s="112"/>
+      <c r="Y143" s="62"/>
+    </row>
+    <row r="144" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="92"/>
+      <c r="B144" s="93"/>
       <c r="C144" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="K144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="O144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="Q144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="S144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="T144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="U144" s="10" t="s">
         <v>3</v>
       </c>
       <c r="V144" s="10" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="W144" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X144" s="11" t="s">
-        <v>4</v>
+      <c r="X144" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="Y144" s="8"/>
     </row>
-    <row r="145" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
         <v>2</v>
       </c>
@@ -9121,12 +9201,12 @@
       </c>
       <c r="Y145" s="8"/>
     </row>
-    <row r="146" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="71" t="s">
+    <row r="146" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B146" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C146" s="19">
         <v>4.7300824500000003</v>
@@ -9196,10 +9276,10 @@
       </c>
       <c r="Y146" s="8"/>
     </row>
-    <row r="147" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="71"/>
+    <row r="147" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="102"/>
       <c r="B147" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="23">
         <v>23.473857859999988</v>
@@ -9269,10 +9349,10 @@
       </c>
       <c r="Y147" s="8"/>
     </row>
-    <row r="148" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="71"/>
+    <row r="148" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="102"/>
       <c r="B148" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="19">
         <v>2.5662994160000001</v>
@@ -9342,10 +9422,10 @@
       </c>
       <c r="Y148" s="8"/>
     </row>
-    <row r="149" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A149" s="71"/>
+    <row r="149" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="102"/>
       <c r="B149" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C149" s="23">
         <v>28.145328460000005</v>
@@ -9415,10 +9495,10 @@
       </c>
       <c r="Y149" s="8"/>
     </row>
-    <row r="150" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
+    <row r="150" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="102"/>
       <c r="B150" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C150" s="19">
         <v>3.9177973199999996</v>
@@ -9488,10 +9568,10 @@
       </c>
       <c r="Y150" s="8"/>
     </row>
-    <row r="151" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="71"/>
+    <row r="151" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="102"/>
       <c r="B151" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C151" s="23">
         <v>63.299497841000004</v>
@@ -9561,10 +9641,10 @@
       </c>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
+    <row r="152" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="102"/>
       <c r="B152" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C152" s="19">
         <v>13.402182269000001</v>
@@ -9634,10 +9714,10 @@
       </c>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="72"/>
-      <c r="B153" s="29" t="s">
-        <v>13</v>
+    <row r="153" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="103"/>
+      <c r="B153" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="C153" s="30">
         <v>19.772388173</v>
@@ -9707,36 +9787,36 @@
       </c>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B154" s="73"/>
-      <c r="C154" s="73"/>
-      <c r="D154" s="73"/>
-      <c r="E154" s="73"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="73"/>
-      <c r="I154" s="73"/>
-      <c r="J154" s="73"/>
-      <c r="K154" s="73"/>
-      <c r="L154" s="73"/>
-      <c r="M154" s="73"/>
-      <c r="N154" s="73"/>
-      <c r="O154" s="73"/>
-      <c r="P154" s="73"/>
-      <c r="Q154" s="73"/>
-      <c r="R154" s="73"/>
-      <c r="S154" s="73"/>
-      <c r="T154" s="73"/>
-      <c r="U154" s="73"/>
-      <c r="V154" s="73"/>
-      <c r="W154" s="73"/>
-      <c r="X154" s="73"/>
+    <row r="154" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" s="76"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="76"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="76"/>
+      <c r="J154" s="76"/>
+      <c r="K154" s="76"/>
+      <c r="L154" s="76"/>
+      <c r="M154" s="76"/>
+      <c r="N154" s="76"/>
+      <c r="O154" s="76"/>
+      <c r="P154" s="76"/>
+      <c r="Q154" s="76"/>
+      <c r="R154" s="76"/>
+      <c r="S154" s="76"/>
+      <c r="T154" s="76"/>
+      <c r="U154" s="76"/>
+      <c r="V154" s="76"/>
+      <c r="W154" s="76"/>
+      <c r="X154" s="76"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9763,17 +9843,17 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
+    <row r="156" spans="1:25" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" s="104"/>
+      <c r="C156" s="104"/>
+      <c r="D156" s="104"/>
+      <c r="E156" s="104"/>
+      <c r="F156" s="104"/>
+      <c r="G156" s="104"/>
+      <c r="H156" s="104"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
@@ -9792,19 +9872,19 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B157" s="87"/>
-      <c r="C157" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D157" s="93"/>
-      <c r="E157" s="93"/>
-      <c r="F157" s="93"/>
-      <c r="G157" s="93"/>
-      <c r="H157" s="94"/>
+    <row r="157" spans="1:25" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="89"/>
+      <c r="C157" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="107"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
@@ -9823,21 +9903,21 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A158" s="88"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="F158" s="96"/>
-      <c r="G158" s="96" t="s">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A158" s="90"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="109"/>
+      <c r="E158" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="109"/>
+      <c r="G158" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H158" s="97"/>
+      <c r="H158" s="110"/>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
@@ -9856,26 +9936,26 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="90"/>
-      <c r="B159" s="91"/>
+    <row r="159" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="92"/>
+      <c r="B159" s="93"/>
       <c r="C159" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H159" s="11" t="s">
-        <v>4</v>
+      <c r="H159" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
@@ -9895,7 +9975,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>2</v>
       </c>
@@ -9938,12 +10018,12 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A161" s="71" t="s">
+    <row r="161" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C161" s="19">
         <v>97.439698470000152</v>
@@ -9981,10 +10061,10 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A162" s="71"/>
+    <row r="162" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="102"/>
       <c r="B162" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" s="23">
         <v>132.79442648799991</v>
@@ -10022,10 +10102,10 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A163" s="71"/>
+    <row r="163" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="102"/>
       <c r="B163" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" s="19">
         <v>43.947877498999944</v>
@@ -10063,10 +10143,10 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A164" s="71"/>
+    <row r="164" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="102"/>
       <c r="B164" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C164" s="23">
         <v>73.807653459999969</v>
@@ -10104,10 +10184,10 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="71"/>
+    <row r="165" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="102"/>
       <c r="B165" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C165" s="19">
         <v>31.19969023399997</v>
@@ -10145,10 +10225,10 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="71"/>
+    <row r="166" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="102"/>
       <c r="B166" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C166" s="23">
         <v>556.81303608199948</v>
@@ -10186,10 +10266,10 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="71"/>
+    <row r="167" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="102"/>
       <c r="B167" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C167" s="19">
         <v>110.21300435600001</v>
@@ -10227,10 +10307,10 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="71"/>
+    <row r="168" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="102"/>
       <c r="B168" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C168" s="23">
         <v>96.665597870999889</v>
@@ -10268,12 +10348,12 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A169" s="71" t="s">
-        <v>14</v>
+    <row r="169" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="102" t="s">
+        <v>9</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="19">
         <v>97.439698470000152</v>
@@ -10311,10 +10391,10 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A170" s="71"/>
+    <row r="170" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="102"/>
       <c r="B170" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170" s="23">
         <v>80.873293331999946</v>
@@ -10352,10 +10432,10 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A171" s="71"/>
+    <row r="171" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="102"/>
       <c r="B171" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171" s="19">
         <v>183.64109764</v>
@@ -10393,10 +10473,10 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A172" s="71"/>
+    <row r="172" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="102"/>
       <c r="B172" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172" s="23">
         <v>123.37571080799981</v>
@@ -10434,10 +10514,10 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="71"/>
+    <row r="173" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="102"/>
       <c r="B173" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173" s="19">
         <v>1.3829950850000001</v>
@@ -10475,10 +10555,10 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A174" s="71"/>
+    <row r="174" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="102"/>
       <c r="B174" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" s="23">
         <v>43.947877498999944</v>
@@ -10516,10 +10596,10 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A175" s="71"/>
+    <row r="175" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="102"/>
       <c r="B175" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C175" s="19">
         <v>2.7400376519999998</v>
@@ -10557,10 +10637,10 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A176" s="71"/>
+    <row r="176" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="102"/>
       <c r="B176" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C176" s="23">
         <v>81.64041660499997</v>
@@ -10598,10 +10678,10 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A177" s="71"/>
+    <row r="177" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="102"/>
       <c r="B177" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C177" s="19">
         <v>12.929146076000006</v>
@@ -10639,10 +10719,10 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="71"/>
+    <row r="178" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="102"/>
       <c r="B178" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C178" s="23">
         <v>9.4187156800000142</v>
@@ -10680,10 +10760,10 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A179" s="71"/>
+    <row r="179" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="102"/>
       <c r="B179" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C179" s="19">
         <v>8.264847060000001</v>
@@ -10721,10 +10801,10 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A180" s="71"/>
+    <row r="180" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="102"/>
       <c r="B180" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C180" s="23">
         <v>131.87499086299985</v>
@@ -10762,10 +10842,10 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A181" s="71"/>
+    <row r="181" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A181" s="102"/>
       <c r="B181" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C181" s="19">
         <v>48.251109450000001</v>
@@ -10803,10 +10883,10 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A182" s="71"/>
+    <row r="182" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="102"/>
       <c r="B182" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C182" s="23">
         <v>24.287068455999989</v>
@@ -10844,10 +10924,10 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A183" s="71"/>
+    <row r="183" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="102"/>
       <c r="B183" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C183" s="19">
         <v>1.336264992</v>
@@ -10885,10 +10965,10 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A184" s="71"/>
+    <row r="184" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="102"/>
       <c r="B184" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C184" s="23">
         <v>27.131669699999968</v>
@@ -10926,10 +11006,10 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A185" s="71"/>
+    <row r="185" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="102"/>
       <c r="B185" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C185" s="19">
         <v>3.9307441050000023</v>
@@ -10967,10 +11047,10 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A186" s="71"/>
+    <row r="186" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="102"/>
       <c r="B186" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C186" s="23">
         <v>51.6515679419999</v>
@@ -11008,10 +11088,10 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A187" s="71"/>
+    <row r="187" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="102"/>
       <c r="B187" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C187" s="19">
         <v>2.836319134</v>
@@ -11049,10 +11129,10 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A188" s="71"/>
+    <row r="188" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="102"/>
       <c r="B188" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C188" s="23">
         <v>6.8786873280000034</v>
@@ -11090,10 +11170,10 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="71"/>
+    <row r="189" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="102"/>
       <c r="B189" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C189" s="19">
         <v>67.510628242000024</v>
@@ -11131,10 +11211,10 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A190" s="71"/>
+    <row r="190" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="102"/>
       <c r="B190" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C190" s="23">
         <v>25.224225523999987</v>
@@ -11172,10 +11252,10 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A191" s="71"/>
+    <row r="191" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="102"/>
       <c r="B191" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C191" s="19">
         <v>28.741641872999992</v>
@@ -11213,10 +11293,10 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="71"/>
+    <row r="192" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="102"/>
       <c r="B192" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C192" s="23">
         <v>66.928966131999957</v>
@@ -11254,10 +11334,10 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A193" s="71"/>
+    <row r="193" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="102"/>
       <c r="B193" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C193" s="19">
         <v>0</v>
@@ -11295,10 +11375,10 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="72"/>
+    <row r="194" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="103"/>
       <c r="B194" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C194" s="30">
         <v>10.643264811999996</v>
@@ -11336,17 +11416,17 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B195" s="73"/>
-      <c r="C195" s="73"/>
-      <c r="D195" s="73"/>
-      <c r="E195" s="73"/>
-      <c r="F195" s="73"/>
-      <c r="G195" s="73"/>
-      <c r="H195" s="73"/>
+    <row r="195" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="76"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="76"/>
+      <c r="E195" s="76"/>
+      <c r="F195" s="76"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="76"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
@@ -11365,7 +11445,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -11392,17 +11472,17 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B197" s="85"/>
-      <c r="C197" s="85"/>
-      <c r="D197" s="85"/>
-      <c r="E197" s="85"/>
-      <c r="F197" s="85"/>
-      <c r="G197" s="85"/>
-      <c r="H197" s="85"/>
+    <row r="197" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="B197" s="104"/>
+      <c r="C197" s="104"/>
+      <c r="D197" s="104"/>
+      <c r="E197" s="104"/>
+      <c r="F197" s="104"/>
+      <c r="G197" s="104"/>
+      <c r="H197" s="104"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
@@ -11421,19 +11501,19 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="B198" s="87"/>
-      <c r="C198" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="D198" s="93"/>
-      <c r="E198" s="93"/>
-      <c r="F198" s="93"/>
-      <c r="G198" s="93"/>
-      <c r="H198" s="94"/>
+    <row r="198" spans="1:25" ht="13.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" s="89"/>
+      <c r="C198" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" s="95"/>
+      <c r="E198" s="95"/>
+      <c r="F198" s="95"/>
+      <c r="G198" s="95"/>
+      <c r="H198" s="96"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
@@ -11452,21 +11532,21 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A199" s="88"/>
-      <c r="B199" s="89"/>
-      <c r="C199" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199" s="96"/>
-      <c r="E199" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="F199" s="96"/>
-      <c r="G199" s="96" t="s">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A199" s="90"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="98"/>
+      <c r="E199" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="98"/>
+      <c r="G199" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="H199" s="97"/>
+      <c r="H199" s="100"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
@@ -11485,26 +11565,26 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="90"/>
-      <c r="B200" s="91"/>
+    <row r="200" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="92"/>
+      <c r="B200" s="93"/>
       <c r="C200" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H200" s="11" t="s">
-        <v>4</v>
+      <c r="H200" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
@@ -11524,7 +11604,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" spans="1:25" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
         <v>2</v>
       </c>
@@ -11567,12 +11647,12 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A202" s="71" t="s">
+    <row r="202" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C202" s="19">
         <v>461.65604711999595</v>
@@ -11610,10 +11690,10 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A203" s="71"/>
+    <row r="203" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="73"/>
       <c r="B203" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="23">
         <v>497.93946032299675</v>
@@ -11651,10 +11731,10 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A204" s="71"/>
+    <row r="204" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="73"/>
       <c r="B204" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" s="19">
         <v>145.63749185799966</v>
@@ -11692,10 +11772,10 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A205" s="71"/>
+    <row r="205" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A205" s="73"/>
       <c r="B205" s="18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C205" s="23">
         <v>978.13540267799692</v>
@@ -11733,10 +11813,10 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A206" s="71"/>
+    <row r="206" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="73"/>
       <c r="B206" s="18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C206" s="19">
         <v>206.05689193399948</v>
@@ -11774,10 +11854,10 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A207" s="71"/>
+    <row r="207" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="73"/>
       <c r="B207" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C207" s="23">
         <v>1433.5939675209979</v>
@@ -11815,10 +11895,10 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A208" s="71"/>
+    <row r="208" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="73"/>
       <c r="B208" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C208" s="19">
         <v>693.11116521500026</v>
@@ -11856,10 +11936,10 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A209" s="71"/>
+    <row r="209" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="74"/>
       <c r="B209" s="18" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C209" s="23">
         <v>329.02416685499793</v>
@@ -11897,12 +11977,12 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
-        <v>14</v>
+    <row r="210" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="72" t="s">
+        <v>9</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" s="19">
         <v>461.65604711999595</v>
@@ -11940,10 +12020,10 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A211" s="71"/>
+    <row r="211" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="73"/>
       <c r="B211" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C211" s="23">
         <v>300.68275726000036</v>
@@ -11981,10 +12061,10 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A212" s="71"/>
+    <row r="212" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="73"/>
       <c r="B212" s="18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C212" s="19">
         <v>517.53400243999999</v>
@@ -12022,10 +12102,10 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A213" s="71"/>
+    <row r="213" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="73"/>
       <c r="B213" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C213" s="23">
         <v>467.79957014699789</v>
@@ -12063,10 +12143,10 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A214" s="71"/>
+    <row r="214" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="73"/>
       <c r="B214" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C214" s="19">
         <v>9.6081763800000122</v>
@@ -12104,10 +12184,10 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A215" s="71"/>
+    <row r="215" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="73"/>
       <c r="B215" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" s="23">
         <v>145.63749185799966</v>
@@ -12145,10 +12225,10 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A216" s="71"/>
+    <row r="216" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="73"/>
       <c r="B216" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C216" s="19">
         <v>38.858715791999877</v>
@@ -12186,10 +12266,10 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A217" s="71"/>
+    <row r="217" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="73"/>
       <c r="B217" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C217" s="23">
         <v>233.55359686999927</v>
@@ -12227,10 +12307,10 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A218" s="71"/>
+    <row r="218" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="73"/>
       <c r="B218" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C218" s="19">
         <v>60.028178209999822</v>
@@ -12268,10 +12348,10 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A219" s="71"/>
+    <row r="219" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="73"/>
       <c r="B219" s="18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C219" s="23">
         <v>30.139890175999923</v>
@@ -12309,10 +12389,10 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A220" s="71"/>
+    <row r="220" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="73"/>
       <c r="B220" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C220" s="19">
         <v>76.587582755999762</v>
@@ -12350,10 +12430,10 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A221" s="71"/>
+    <row r="221" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="73"/>
       <c r="B221" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C221" s="23">
         <v>251.76134619300049</v>
@@ -12391,10 +12471,10 @@
       <c r="X221" s="8"/>
       <c r="Y221" s="8"/>
     </row>
-    <row r="222" spans="1:25" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A222" s="71"/>
+    <row r="222" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="73"/>
       <c r="B222" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C222" s="19">
         <v>252.51413945500025</v>
@@ -12432,10 +12512,10 @@
       <c r="X222" s="8"/>
       <c r="Y222" s="8"/>
     </row>
-    <row r="223" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A223" s="71"/>
+    <row r="223" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="73"/>
       <c r="B223" s="18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C223" s="23">
         <v>104.95483154200019</v>
@@ -12473,10 +12553,10 @@
       <c r="X223" s="8"/>
       <c r="Y223" s="8"/>
     </row>
-    <row r="224" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A224" s="71"/>
+    <row r="224" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="73"/>
       <c r="B224" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C224" s="19">
         <v>23.050571111999954</v>
@@ -12514,10 +12594,10 @@
       <c r="X224" s="8"/>
       <c r="Y224" s="8"/>
     </row>
-    <row r="225" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A225" s="71"/>
+    <row r="225" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="73"/>
       <c r="B225" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C225" s="23">
         <v>39.340921065000046</v>
@@ -12555,10 +12635,10 @@
       <c r="X225" s="8"/>
       <c r="Y225" s="8"/>
     </row>
-    <row r="226" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A226" s="71"/>
+    <row r="226" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="73"/>
       <c r="B226" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C226" s="19">
         <v>13.277180088000017</v>
@@ -12596,10 +12676,10 @@
       <c r="X226" s="8"/>
       <c r="Y226" s="8"/>
     </row>
-    <row r="227" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A227" s="71"/>
+    <row r="227" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="73"/>
       <c r="B227" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C227" s="23">
         <v>90.721343692999696</v>
@@ -12637,10 +12717,10 @@
       <c r="X227" s="8"/>
       <c r="Y227" s="8"/>
     </row>
-    <row r="228" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A228" s="71"/>
+    <row r="228" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="73"/>
       <c r="B228" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C228" s="19">
         <v>39.192773488</v>
@@ -12678,10 +12758,10 @@
       <c r="X228" s="8"/>
       <c r="Y228" s="8"/>
     </row>
-    <row r="229" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A229" s="71"/>
+    <row r="229" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="73"/>
       <c r="B229" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C229" s="23">
         <v>34.680048611999979</v>
@@ -12719,10 +12799,10 @@
       <c r="X229" s="8"/>
       <c r="Y229" s="8"/>
     </row>
-    <row r="230" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A230" s="71"/>
+    <row r="230" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="73"/>
       <c r="B230" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C230" s="19">
         <v>187.40019218899951</v>
@@ -12760,10 +12840,10 @@
       <c r="X230" s="8"/>
       <c r="Y230" s="8"/>
     </row>
-    <row r="231" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A231" s="71"/>
+    <row r="231" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="73"/>
       <c r="B231" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C231" s="23">
         <v>128.3467945780005</v>
@@ -12801,10 +12881,10 @@
       <c r="X231" s="8"/>
       <c r="Y231" s="8"/>
     </row>
-    <row r="232" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A232" s="71"/>
+    <row r="232" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="73"/>
       <c r="B232" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C232" s="19">
         <v>221.72123730600029</v>
@@ -12842,10 +12922,10 @@
       <c r="X232" s="8"/>
       <c r="Y232" s="8"/>
     </row>
-    <row r="233" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A233" s="71"/>
+    <row r="233" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="73"/>
       <c r="B233" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C233" s="23">
         <v>266.34996725999986</v>
@@ -12883,10 +12963,10 @@
       <c r="X233" s="8"/>
       <c r="Y233" s="8"/>
     </row>
-    <row r="234" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A234" s="71"/>
+    <row r="234" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="73"/>
       <c r="B234" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C234" s="19">
         <v>677.10538680599836</v>
@@ -12924,10 +13004,10 @@
       <c r="X234" s="8"/>
       <c r="Y234" s="8"/>
     </row>
-    <row r="235" spans="1:25" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="72"/>
+    <row r="235" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="75"/>
       <c r="B235" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C235" s="30">
         <v>72.651851108000145</v>
@@ -12965,17 +13045,17 @@
       <c r="X235" s="8"/>
       <c r="Y235" s="8"/>
     </row>
-    <row r="236" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B236" s="73"/>
-      <c r="C236" s="73"/>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="73"/>
-      <c r="G236" s="73"/>
-      <c r="H236" s="73"/>
+    <row r="236" spans="1:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" s="76"/>
+      <c r="C236" s="76"/>
+      <c r="D236" s="76"/>
+      <c r="E236" s="76"/>
+      <c r="F236" s="76"/>
+      <c r="G236" s="76"/>
+      <c r="H236" s="76"/>
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
@@ -12994,47 +13074,47 @@
       <c r="X236" s="8"/>
       <c r="Y236" s="8"/>
     </row>
-    <row r="239" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B239" s="74"/>
-      <c r="C239" s="74"/>
-      <c r="D239" s="74"/>
-      <c r="E239" s="74"/>
-      <c r="F239" s="74"/>
-    </row>
-    <row r="240" spans="1:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="B240" s="76"/>
-      <c r="C240" s="77"/>
-      <c r="D240" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="E240" s="82"/>
-      <c r="F240" s="83" t="s">
+    <row r="239" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="77"/>
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="77"/>
+    </row>
+    <row r="240" spans="1:25" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B240" s="79"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E240" s="85"/>
+      <c r="F240" s="86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="78"/>
-      <c r="B241" s="79"/>
-      <c r="C241" s="80"/>
+    <row r="241" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="81"/>
+      <c r="B241" s="82"/>
+      <c r="C241" s="83"/>
       <c r="D241" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E241" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F241" s="84"/>
-    </row>
-    <row r="242" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B242" s="66" t="s">
+      <c r="F241" s="87"/>
+    </row>
+    <row r="242" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B242" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C242" s="44" t="s">
@@ -13050,11 +13130,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A243" s="64"/>
-      <c r="B243" s="67"/>
+    <row r="243" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A243" s="65"/>
+      <c r="B243" s="68"/>
       <c r="C243" s="48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D243" s="49">
         <v>0.82456140350877194</v>
@@ -13066,11 +13146,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A244" s="64"/>
-      <c r="B244" s="67"/>
+    <row r="244" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A244" s="65"/>
+      <c r="B244" s="68"/>
       <c r="C244" s="48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D244" s="49">
         <v>0.55294117647058827</v>
@@ -13082,11 +13162,11 @@
         <v>0.13427561837455831</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="64"/>
-      <c r="B245" s="68"/>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="65"/>
+      <c r="B245" s="69"/>
       <c r="C245" s="52" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D245" s="53">
         <v>0.11071849234393402</v>
@@ -13098,9 +13178,9 @@
         <v>0.13427561837455831</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="64"/>
-      <c r="B246" s="68" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="65"/>
+      <c r="B246" s="69" t="s">
         <v>0</v>
       </c>
       <c r="C246" s="48" t="s">
@@ -13116,11 +13196,11 @@
         <v>735</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A247" s="64"/>
-      <c r="B247" s="67"/>
+    <row r="247" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A247" s="65"/>
+      <c r="B247" s="68"/>
       <c r="C247" s="48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D247" s="49">
         <v>0.10340136054421768</v>
@@ -13132,11 +13212,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A248" s="64"/>
-      <c r="B248" s="67"/>
+    <row r="248" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A248" s="65"/>
+      <c r="B248" s="68"/>
       <c r="C248" s="48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D248" s="49">
         <v>0.44705882352941179</v>
@@ -13148,11 +13228,11 @@
         <v>0.86572438162544174</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="65"/>
-      <c r="B249" s="68"/>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="66"/>
+      <c r="B249" s="69"/>
       <c r="C249" s="52" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D249" s="53">
         <v>8.95170789163722E-2</v>
@@ -13164,11 +13244,11 @@
         <v>0.86572438162544174</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="65" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="67"/>
+      <c r="B250" s="68"/>
       <c r="C250" s="48" t="s">
         <v>3</v>
       </c>
@@ -13182,11 +13262,11 @@
         <v>849</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A251" s="64"/>
-      <c r="B251" s="67"/>
+    <row r="251" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A251" s="65"/>
+      <c r="B251" s="68"/>
       <c r="C251" s="48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D251" s="49">
         <v>0.20023557126030625</v>
@@ -13198,11 +13278,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A252" s="64"/>
-      <c r="B252" s="67"/>
+    <row r="252" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A252" s="65"/>
+      <c r="B252" s="68"/>
       <c r="C252" s="48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D252" s="49">
         <v>1</v>
@@ -13214,27 +13294,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="69"/>
-      <c r="B253" s="70"/>
-      <c r="C253" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D253" s="60">
+    <row r="253" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="70"/>
+      <c r="B253" s="71"/>
+      <c r="C253" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D253" s="59">
         <v>0.20023557126030625</v>
       </c>
-      <c r="E253" s="61">
+      <c r="E253" s="60">
         <v>0.79976442873969378</v>
       </c>
-      <c r="F253" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F253" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="A15:A40"/>
-    <mergeCell ref="J15:J40"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="J2:Q2"/>
@@ -13248,12 +13326,14 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="J7:J14"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="J41:J44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A15:A40"/>
+    <mergeCell ref="J15:J40"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="A90:A93"/>
@@ -13292,14 +13372,6 @@
     <mergeCell ref="G143:H143"/>
     <mergeCell ref="I143:J143"/>
     <mergeCell ref="W143:X143"/>
-    <mergeCell ref="A146:A153"/>
-    <mergeCell ref="A154:X154"/>
-    <mergeCell ref="A156:H156"/>
-    <mergeCell ref="A157:B159"/>
-    <mergeCell ref="C157:H157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
     <mergeCell ref="K143:L143"/>
     <mergeCell ref="M143:N143"/>
     <mergeCell ref="O143:P143"/>
@@ -13310,6 +13382,14 @@
     <mergeCell ref="A169:A194"/>
     <mergeCell ref="A195:H195"/>
     <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A146:A153"/>
+    <mergeCell ref="A154:X154"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A157:B159"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
     <mergeCell ref="A198:B200"/>
     <mergeCell ref="C198:H198"/>
     <mergeCell ref="C199:D199"/>
@@ -13328,7 +13408,7 @@
     <mergeCell ref="F240:F241"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:R1" location="'Analysis Plan'!A1" display="Return to analysis plan"/>
+    <hyperlink ref="A1:R1" location="Ref" display="Return to analysis plan" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13336,21 +13416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6B7D25836F67646A98C66F1CDD61673" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c52d6cab250df69c2bdfed776df9ffc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6df68d03-0d94-44b1-a9a2-765e7690f201" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8c761c4bf2ce1df6029c896e91e76d8" ns3:_="">
     <xsd:import namespace="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
@@ -13514,31 +13579,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43CE09D-A109-40CD-A250-DB82FF5CE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556DC77C-4BA6-4B92-9BEE-06E8D70C4031}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C89FE1-E29B-4B66-BAA0-A9FAD1550842}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13554,4 +13610,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43CE09D-A109-40CD-A250-DB82FF5CE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556DC77C-4BA6-4B92-9BEE-06E8D70C4031}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>